--- a/biology/Zoologie/Apocrita/Apocrita.xlsx
+++ b/biology/Zoologie/Apocrita/Apocrita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apocrites
 Les Apocrites (Apocrita) sont un sous-ordre d'insectes, de l'ordre des hyménoptères, du super-ordre des Endopterygota ou holométaboles.
@@ -513,17 +525,88 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Apocrites forment un immense ensemble d'espèces (c'est le plus grand sous-ordre parmi les insectes) et sont répartis en au moins deux infra-ordres (historiques) et en treize super-familles :
-Aculéates (Aculeata)
-Cet infra-ordre est monophylétique. Les femelles possèdent un aiguillon abdominal, communément appelé dard (il est atrophié chez la majorité des fourmis).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Apocrita</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apocrita</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aculéates (Aculeata)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cet infra-ordre est monophylétique. Les femelles possèdent un aiguillon abdominal, communément appelé dard (il est atrophié chez la majorité des fourmis).
 Il comprend au moins trois super-familles :
 la super-famille des Apoidea - 11 familles, les guêpes apoïdes et les abeilles ;
 la super-famille des Chrysidoidea - 7 familles, les guêpes dorées ;
-la super-famille des Vespoidea - 8 familles vraie guêpes et fourmis.
-Térébrants (Terebrantes)
-Cet infra-ordre (paraphylétique), autrefois nommé parasites (Parasitica), comprend la majorité des insectes hyménoptères parasitoïdes. Les femelles possèdent un ovipositeur, n'ont pas d'aiguillon et leurs antennes ont plus de 13 articles.
+la super-famille des Vespoidea - 8 familles vraie guêpes et fourmis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apocrita</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apocrita</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Térébrants (Terebrantes)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cet infra-ordre (paraphylétique), autrefois nommé parasites (Parasitica), comprend la majorité des insectes hyménoptères parasitoïdes. Les femelles possèdent un ovipositeur, n'ont pas d'aiguillon et leurs antennes ont plus de 13 articles.
 L'infra-ordre est disputé car des hyménoptères parasitoïdes existent aussi parmi les espèces de l'infra-ordre des aculéates (ci-dessus) et une reclassification phylogénique des super-familles listées ci-dessous est à l'étude. Cet ensemble comprend actuellement douze super-familles :
 la super-famille des Ceraphronoidea - 2 familles ;
 la super-famille des Chalcidoidea - 19 familles contenant pas moins de 22 000 espèces ;
@@ -536,10 +619,44 @@
 la super-famille des Proctotrupoidea - 11 familles ;
 la super-famille des Serphitoidea - 1 famille ;
 la super-famille des Stephanoidea - 5 familles dont 4 éteintes ;
-la super-famille des Trygonalyoidea - 1 famille.
-Phylogénie
-L'arbre phylogénétique donne un aperçu condensé de la phylogénie, illustré par les grands groupes. L'arbre n'est pas entièrement résolu[1],[2],[3],[4].
-Cladogramme d'Apocrita d'après[4]
+la super-famille des Trygonalyoidea - 1 famille.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apocrita</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apocrita</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre phylogénétique donne un aperçu condensé de la phylogénie, illustré par les grands groupes. L'arbre n'est pas entièrement résolu.
+Cladogramme d'Apocrita d'après
 </t>
         </is>
       </c>
